--- a/Team-Data/2007-08/1-10-2007-08.xlsx
+++ b/Team-Data/2007-08/1-10-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -792,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>12.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
@@ -977,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
@@ -1120,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1138,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1487,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
@@ -1696,10 +1763,10 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1848,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.75</v>
+        <v>0.743</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1958,7 +2025,7 @@
         <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.466</v>
@@ -1967,37 +2034,37 @@
         <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n">
         <v>0.764</v>
       </c>
       <c r="R9" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
         <v>40.7</v>
       </c>
       <c r="U9" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>5.2</v>
@@ -2009,16 +2076,16 @@
         <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,10 +2100,10 @@
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>6</v>
@@ -2054,19 +2121,19 @@
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU9" t="n">
         <v>6</v>
@@ -2075,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>1.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
@@ -2427,7 +2494,7 @@
         <v>7</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="AM12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN12" t="n">
         <v>11</v>
@@ -2606,7 +2673,7 @@
         <v>19</v>
       </c>
       <c r="AR12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2958,13 +3025,13 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>11</v>
@@ -2988,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>0.286</v>
+        <v>0.294</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L15" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M15" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>41.3</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X15" t="n">
         <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="AC15" t="n">
         <v>-4.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3122,16 +3189,16 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>6</v>
@@ -3140,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>16</v>
@@ -3155,16 +3222,16 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
         <v>30</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3307,13 +3374,13 @@
         <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3337,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3492,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
@@ -3516,13 +3583,13 @@
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3531,7 +3598,7 @@
         <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3874,7 +3941,7 @@
         <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4059,7 +4126,7 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4226,7 +4293,7 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>18</v>
@@ -4235,7 +4302,7 @@
         <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>12</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4623,7 +4690,7 @@
         <v>23</v>
       </c>
       <c r="AW23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -4670,70 +4737,70 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
         <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>0.694</v>
+        <v>0.714</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.7</v>
+        <v>42.1</v>
       </c>
       <c r="J24" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.488</v>
+        <v>0.492</v>
       </c>
       <c r="L24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="O24" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P24" t="n">
         <v>22.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R24" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="V24" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W24" t="n">
         <v>7.2</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z24" t="n">
         <v>19.4</v>
@@ -4742,13 +4809,13 @@
         <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>110</v>
+        <v>110.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4769,13 +4836,13 @@
         <v>4</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>3</v>
       </c>
       <c r="AM24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN24" t="n">
         <v>4</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4969,10 +5036,10 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
         <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.412</v>
+        <v>0.394</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M26" t="n">
         <v>16.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P26" t="n">
         <v>27.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.788</v>
       </c>
       <c r="R26" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S26" t="n">
         <v>29.2</v>
       </c>
       <c r="T26" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="U26" t="n">
         <v>17.9</v>
       </c>
       <c r="V26" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
@@ -5097,25 +5164,25 @@
         <v>3.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA26" t="n">
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.2</v>
+        <v>97.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
@@ -5124,10 +5191,10 @@
         <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5145,16 +5212,16 @@
         <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP26" t="n">
         <v>8</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
         <v>25</v>
@@ -5169,13 +5236,13 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5184,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="n">
         <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>0.676</v>
+        <v>0.697</v>
       </c>
       <c r="H27" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>79.3</v>
+        <v>79.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L27" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M27" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="N27" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O27" t="n">
         <v>17.2</v>
@@ -5258,16 +5325,16 @@
         <v>0.758</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T27" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U27" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V27" t="n">
         <v>12.5</v>
@@ -5276,7 +5343,7 @@
         <v>6.2</v>
       </c>
       <c r="X27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y27" t="n">
         <v>4.8</v>
@@ -5288,13 +5355,13 @@
         <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
@@ -5303,19 +5370,19 @@
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ27" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5336,16 +5403,16 @@
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AS27" t="n">
         <v>12</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
@@ -5366,7 +5433,7 @@
         <v>22</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
@@ -5506,7 +5573,7 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>19</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>1.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5700,16 +5767,16 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
         <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0.541</v>
+        <v>0.528</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,7 +5847,7 @@
         <v>39.6</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.489</v>
@@ -5789,61 +5856,61 @@
         <v>3.9</v>
       </c>
       <c r="M30" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R30" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S30" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W30" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5861,7 +5928,7 @@
         <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5870,25 +5937,25 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5897,7 +5964,7 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
@@ -6061,7 +6128,7 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-10-2007-08</t>
+          <t>2008-01-10</t>
         </is>
       </c>
     </row>
